--- a/data/nvidia/sentiment/nvidia_averages.xlsx
+++ b/data/nvidia/sentiment/nvidia_averages.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="nvidia_averages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -376,7 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +542,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -905,41 +909,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" activeCellId="7" sqref="A104:XFD104 A91:XFD91 A78:XFD78 A65:XFD65 A53:XFD53 A38:XFD38 A26:XFD26 A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -948,288 +953,340 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <f>1.1795424</f>
         <v>1.1795424000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>42053</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-0.56837297193103398</v>
       </c>
-      <c r="F2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <f t="shared" ref="F2:I33" si="0">B2-$L$1</f>
         <v>-1.7479153719310341</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>42060</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.26602260901562402</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>AVERAGE(B2:B3)</f>
         <v>-0.15117518145770498</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>-0.91351979098437608</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>-1.330717581457705</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>42067</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.5462364940498001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C67" si="1">AVERAGE(B3:B4)</f>
         <v>1.4061295515327121</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>1.3666940940498</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>0.22658715153271203</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>42074</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.49154743768354</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>2.0188919658666702</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D68" si="2">AVERAGE(B2:B5)</f>
         <v>0.93385839220448252</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.31200503768353993</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0.83934956586667009</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>-0.24568400779551758</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>42081</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.7060692713288499</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>1.5988083545061951</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>1.5024689530194535</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.52652687132884979</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0.41926595450619497</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>0.32292655301945339</v>
       </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>42088</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.297787588</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>1.5019284296644249</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>1.7604101977655477</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.11824518799999995</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0.32238602966442476</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.58086779776554764</v>
       </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>42095</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1.02042938255319</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>1.1591084852765952</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>1.3789584198913951</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>-0.15911301744681006</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>-2.0433914723404945E-2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>0.19941601989139501</v>
       </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>42102</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1.13271632902272</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>1.076572855787955</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>1.2892506427261901</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" ref="E9:E72" si="3">AVERAGE(B2:B9)</f>
         <v>1.1115545174653363</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>-4.6826070977280088E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>-0.10296954421204507</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0.10970824272618995</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>-6.7987882534663813E-2</v>
       </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>42109</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.44297854540624898</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>0.78784743721448447</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>0.97347796124553987</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="3"/>
         <v>1.2379734571324965</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>-0.73656385459375118</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>-0.39169496278551563</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>-0.20606443875446023</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
         <v>5.8431057132496411E-2</v>
       </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>42116</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.95654453880952295</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>0.69976154210788599</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>0.88816719894792051</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>1.3242886983567341</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>-0.22299786119047715</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>-0.47978085789211411</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>-0.29137520105207959</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0.14474629835673403</v>
       </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>42123</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>1.4447237406451601</v>
       </c>
       <c r="C12" s="2">
@@ -1260,408 +1317,444 @@
         <f t="shared" si="0"/>
         <v>7.0572041811540753E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>42130</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>0.85900302436809794</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <f t="shared" si="1"/>
         <v>1.1518633825066291</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <f t="shared" si="2"/>
         <v>0.92581246230725744</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <f t="shared" si="3"/>
         <v>1.107531552516724</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>-0.32053937563190216</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>-2.7679017493370983E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>-0.25372993769274266</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>-7.201084748327613E-2</v>
       </c>
+      <c r="J13" s="7">
+        <v>-7.3999999999999996E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>42137</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1.2311189868539301</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>1.0450610056110139</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>1.1228475726691776</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>1.0481627669573588</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>5.1576586853929962E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>-0.13448139438898621</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>-5.6694827330822539E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>-0.13137963304264133</v>
       </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>42144</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.41763594187323899</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>0.8243774643635845</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>0.98812042343510686</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>0.93814381119151358</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>-0.76190645812676117</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>-0.3551649356364156</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>-0.19142197656489324</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>-0.24139858880848653</v>
       </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>42151</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1.8908737981924499</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>1.1542548700328445</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>1.0996579378219291</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>1.0469493631464211</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0.71133139819244984</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>-2.5287529967155553E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>-7.9884462178070992E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>-0.13259303685357904</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>42158</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1.1293557752241301</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>1.51011478670829</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>1.1672461255359372</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>1.0465292939215973</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>-5.0186624775869992E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>0.33057238670828992</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>-1.2296274464062895E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>-0.13301310607840278</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>42165</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1.707970048</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>1.418662911612065</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>1.2864588908224548</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>1.2046532317458161</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0.52842764799999986</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>0.23912051161206493</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.10691649082245469</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>2.5110831745815965E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>42172</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1.0266299272444399</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>1.36729998762222</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>1.4387073871652551</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>1.2134139053001809</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>-0.15291247275556019</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>0.18775758762221995</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>0.25916498716525505</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>3.3871505300180793E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>42179</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.60253052125973905</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>0.81458022425208942</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>1.1166215679320772</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>1.1081397528770032</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>-0.57701187874026105</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>-0.36496217574791068</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>-6.2920832067922872E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>-7.1402647122996932E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>42186</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>1.51017291717647</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>1.0563517192181044</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>1.2118258534201622</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>1.1895359894780497</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0.33063051717646985</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>-0.12319068078189566</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>3.2283453420162145E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>9.9935894780496248E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>42193</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>2.3243632817525701</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>1.9172680994645201</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>1.3659241618583047</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>1.3261915263403798</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>1.14482088175257</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>0.73772569946452005</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>0.18638176185830457</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>0.14664912634037974</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>42200</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1.4159879632439001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>1.8701756224982351</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>1.4632636708581699</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>1.4509855290117124</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>0.23644556324389998</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>0.690633222498235</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>0.28372127085816978</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>0.2714431290117123</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>42207</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>1.44706851512777</v>
       </c>
       <c r="C24" s="2">
@@ -1692,948 +1785,1029 @@
         <f t="shared" si="0"/>
         <v>0.21596746862862726</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>42214</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.214619685573369</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>0.83084410035056955</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>1.3505098614244022</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>1.2811678574222822</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>-0.96492271442663113</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>-0.34869829964943055</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>0.17096746142440211</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>0.10162545742228213</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>42221</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>1.26446923003557</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <f t="shared" si="1"/>
         <v>0.73954445780446953</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <f t="shared" si="2"/>
         <v>1.0855363484951523</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <f t="shared" si="3"/>
         <v>1.2257302551767284</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>8.4926830035569889E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>-0.43999794219553057</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <f t="shared" si="0"/>
         <v>-9.4006051504847754E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>4.6187855176728299E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="J26" s="7">
+        <v>0.1237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>42228</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>0.78285991360714202</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>1.023664571821356</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>0.92725433608596286</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>1.1952590034720663</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>-0.39668248639285808</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>-0.15587782817864415</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>-0.25228806391403724</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>1.571660347206616E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>42235</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>1.20474885358549</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>0.99380438359631595</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>0.86667442070039269</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>1.2705362950127852</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>2.5206453585489896E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>-0.18573801640368415</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
         <v>-0.31286797929960741</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>9.0993895012785098E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>42242</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1.3769376904518</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>1.2908432720186451</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>1.1572539219200006</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>1.2538818916722014</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0.19739529045179993</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>0.11130087201864503</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>-2.2288478079999452E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>7.433949167220133E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>42249</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>1.4669844948725399</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>1.42196109266217</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>1.207882738129243</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>1.1467095433121977</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>0.2874420948725398</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>0.24241869266216987</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>2.8340338129242859E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>-3.2832856687802447E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>42256</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>1.4745920492061</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>1.4707882720393199</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>1.3808157720289826</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>1.1540350540574726</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>0.29504964920609988</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>0.29124587203931984</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
         <v>0.20127337202898254</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>-2.550734594252746E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>42263</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>1.4599682439855699</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>1.4672801465958349</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>1.4446206196290023</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>1.1556475201646974</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>0.2804258439855698</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>0.28773774659583484</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>0.26507821962900224</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>-2.3894879835302696E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>42270</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>1.4165918544631499</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>1.4382800492243599</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>1.45453416063184</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f t="shared" si="3"/>
         <v>1.3058940412759201</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>0.23704945446314984</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>0.25873764922435982</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
         <v>0.27499176063183994</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
         <v>0.12635164127592002</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>42277</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>2.0960865775854698</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <f t="shared" si="1"/>
         <v>1.7563392160243099</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>1.6118096813100724</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <f t="shared" si="3"/>
         <v>1.4098462097196576</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f t="shared" ref="F34:I65" si="4">B34-$L$1</f>
         <v>0.91654417758546969</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <f t="shared" si="4"/>
         <v>0.57679681602430977</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <f t="shared" si="4"/>
         <v>0.4322672813100723</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f t="shared" si="4"/>
         <v>0.23030380971965747</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>42284</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>-0.71682170513765098</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>0.68963243622390946</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>1.0639562427241347</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <f t="shared" si="3"/>
         <v>1.2223860073765587</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <f t="shared" si="4"/>
         <v>-1.8963641051376512</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <f t="shared" si="4"/>
         <v>-0.48990996377609064</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <f t="shared" si="4"/>
         <v>-0.11558615727586541</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f t="shared" si="4"/>
         <v>4.2843607376558568E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
         <v>42291</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>1.3684151819578301</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <f t="shared" si="1"/>
         <v>0.32579673841008955</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>1.0410679772171998</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <f t="shared" si="3"/>
         <v>1.242844298423101</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <f t="shared" si="4"/>
         <v>0.18887278195782997</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <f t="shared" si="4"/>
         <v>-0.85374566158991061</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <f t="shared" si="4"/>
         <v>-0.13847442278280031</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f t="shared" si="4"/>
         <v>6.3301898423100855E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>42300</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.74556476968503904</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <f t="shared" si="1"/>
         <v>1.0569899758214345</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>0.87331120602267198</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <f t="shared" si="3"/>
         <v>1.163922683327256</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>-0.43397763031496106</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f t="shared" si="4"/>
         <v>-0.1225524241785656</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <f t="shared" si="4"/>
         <v>-0.30623119397732812</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f t="shared" si="4"/>
         <v>-1.5619716672744088E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
         <v>42307</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>0.896415687922413</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <f t="shared" si="1"/>
         <v>0.82099022880372607</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <f t="shared" si="2"/>
         <v>0.57339348360690778</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <f t="shared" si="3"/>
         <v>1.09260158245849</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
         <v>-0.28312671207758711</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="6">
         <f t="shared" si="4"/>
         <v>-0.35855217119627403</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <f t="shared" si="4"/>
         <v>-0.60614891639309232</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="6">
         <f t="shared" si="4"/>
         <v>-8.6940817541510063E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="J38" s="7">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>42314</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>1.1434389820304001</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <f t="shared" si="1"/>
         <v>1.0199273349764066</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>1.0384586553989206</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <f t="shared" si="3"/>
         <v>1.0512074490615275</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>-3.6103417969600038E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <f t="shared" si="4"/>
         <v>-0.15961506502359346</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <f t="shared" si="4"/>
         <v>-0.14108374460107953</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f t="shared" si="4"/>
         <v>-0.12833495093847258</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>42321</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.13903368869402</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>1.6412363353622101</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>1.2311132820829682</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <f t="shared" si="3"/>
         <v>1.1360906296500839</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>0.95949128869401989</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <f t="shared" si="4"/>
         <v>0.46169393536221004</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <f t="shared" si="4"/>
         <v>5.1570882082968117E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f t="shared" si="4"/>
         <v>-4.3451770349916208E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="J40" s="3"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>42328</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>1.7748823029051</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>1.95695799579956</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>1.4884426653879834</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <f t="shared" si="3"/>
         <v>1.1808769357053277</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>0.59533990290509986</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <f t="shared" si="4"/>
         <v>0.77741559579955988</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <f t="shared" si="4"/>
         <v>0.30890026538798332</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f t="shared" si="4"/>
         <v>1.3345357053275997E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>42335</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1.0781557255043399</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>1.4265190142047199</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>1.533877674783465</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f t="shared" si="3"/>
         <v>1.0536355791951864</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>-0.10138667449566019</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <f t="shared" si="4"/>
         <v>0.24697661420471984</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <f t="shared" si="4"/>
         <v>0.35433527478346494</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f t="shared" si="4"/>
         <v>-0.12590682080481375</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="J42" s="3"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>42342</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>1.9231537663529401</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <f t="shared" si="1"/>
         <v>1.5006547459286401</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <f t="shared" si="2"/>
         <v>1.7288063708641002</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <f t="shared" si="3"/>
         <v>1.3836325131315101</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <f t="shared" si="4"/>
         <v>0.74361136635294001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <f t="shared" si="4"/>
         <v>0.32111234592864002</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <f t="shared" si="4"/>
         <v>0.54926397086410006</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f t="shared" si="4"/>
         <v>0.20409011313151004</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="J43" s="3"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
         <v>42349</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>0.194151933312499</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>1.0586528498327195</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <f t="shared" si="2"/>
         <v>1.2425859320187198</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <f t="shared" si="3"/>
         <v>1.2368496070508439</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <f t="shared" si="4"/>
         <v>-0.98539046668750108</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <f t="shared" si="4"/>
         <v>-0.12088955016728065</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <f t="shared" si="4"/>
         <v>6.3043532018719706E-2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f t="shared" si="4"/>
         <v>5.73072070508438E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>42356</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0.86521491426035402</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>0.52968342378642652</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <f t="shared" si="2"/>
         <v>1.0151690848575332</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f t="shared" si="3"/>
         <v>1.2518058751227583</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f t="shared" si="4"/>
         <v>-0.31432748573964608</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <f t="shared" si="4"/>
         <v>-0.64985897621357358</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <f t="shared" si="4"/>
         <v>-0.16437331514246689</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f t="shared" si="4"/>
         <v>7.2263475122758214E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="J45" s="3"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>42363</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.55212866541428496</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>0.70867178983731949</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <f t="shared" si="2"/>
         <v>0.88366231983501953</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <f t="shared" si="3"/>
         <v>1.2087699973092423</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <f t="shared" si="4"/>
         <v>-0.62741373458571514</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <f t="shared" si="4"/>
         <v>-0.47087061016268061</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <f t="shared" si="4"/>
         <v>-0.29588008016498057</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f t="shared" si="4"/>
         <v>2.9227597309242181E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="J46" s="3"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
         <v>42370</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1.0359163952906401</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>0.79402253035246251</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <f t="shared" si="2"/>
         <v>0.66185297706944457</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <f t="shared" si="3"/>
         <v>1.1953296739667723</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <f t="shared" si="4"/>
         <v>-0.14362600470936004</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <f t="shared" si="4"/>
         <v>-0.38551986964753759</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <f t="shared" si="4"/>
         <v>-0.51768942293055553</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f t="shared" si="4"/>
         <v>1.5787273966772153E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="J47" s="3"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>42377</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>-6.8302615233333294E-2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <f t="shared" si="1"/>
         <v>0.4838068900286534</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <f t="shared" si="2"/>
         <v>0.5962393399329865</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <f t="shared" si="3"/>
         <v>0.91941263597585299</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <f t="shared" si="4"/>
         <v>-1.2478450152333334</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <f t="shared" si="4"/>
         <v>-0.6957355099713467</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <f t="shared" si="4"/>
         <v>-0.5833030600670136</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f t="shared" si="4"/>
         <v>-0.26012976402414711</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="J48" s="3"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
         <v>42384</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>0.96618636013793102</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <f t="shared" si="1"/>
         <v>0.44894187245229888</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <f t="shared" si="2"/>
         <v>0.62148220140238064</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <f t="shared" si="3"/>
         <v>0.81832564312995681</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <f t="shared" si="4"/>
         <v>-0.21335603986206908</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <f t="shared" si="4"/>
         <v>-0.73060052754770122</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <f t="shared" si="4"/>
         <v>-0.55806019859761946</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f t="shared" si="4"/>
         <v>-0.36121675687004329</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="J49" s="3"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
         <v>42391</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>0.79269784207437999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <f t="shared" si="1"/>
         <v>0.8794421011061555</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <f t="shared" si="2"/>
         <v>0.68162449556740445</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <f t="shared" si="3"/>
         <v>0.78264340770121188</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <f t="shared" si="4"/>
         <v>-0.38684455792562011</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <f t="shared" si="4"/>
         <v>-0.3001002988938446</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <f t="shared" si="4"/>
         <v>-0.49791790443259565</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f t="shared" si="4"/>
         <v>-0.39689899229878822</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="J50" s="3"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>42398</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>1.4666791329</v>
       </c>
       <c r="C51" s="2">
@@ -2664,444 +2838,483 @@
         <f t="shared" si="4"/>
         <v>-0.45395832148040571</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="J51" s="3"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>42405</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>-0.55422479180555495</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <f t="shared" si="1"/>
         <v>0.4562271705472225</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <f t="shared" si="2"/>
         <v>0.667834635826689</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <f t="shared" si="3"/>
         <v>0.63203698787983764</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <f t="shared" si="4"/>
         <v>-1.7337671918055551</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <f t="shared" si="4"/>
         <v>-0.7233152294527776</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <f t="shared" si="4"/>
         <v>-0.5117077641733111</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f t="shared" si="4"/>
         <v>-0.54750541212016246</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="J52" s="3"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>42412</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>1.52830594551674</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <f t="shared" si="1"/>
         <v>0.48704057685559254</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <f t="shared" si="2"/>
         <v>0.80836453217139126</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <f t="shared" si="3"/>
         <v>0.71492336678688595</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="6">
         <f t="shared" si="4"/>
         <v>0.34876354551673994</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="6">
         <f t="shared" si="4"/>
         <v>-0.69250182314440756</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <f t="shared" si="4"/>
         <v>-0.37117786782860884</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="6">
         <f t="shared" si="4"/>
         <v>-0.46461903321311415</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="J53" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
         <v>42419</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>1.67761403006299</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>1.602959987789865</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <f t="shared" si="2"/>
         <v>1.0295935791685438</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <f t="shared" si="3"/>
         <v>0.85560903736797411</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <f t="shared" si="4"/>
         <v>0.49807163006298993</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <f t="shared" si="4"/>
         <v>0.42341758778986494</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <f t="shared" si="4"/>
         <v>-0.14994882083145633</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f t="shared" si="4"/>
         <v>-0.32393336263202599</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="J54" s="3"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
         <v>42426</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1.02777885289899</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <f t="shared" si="1"/>
         <v>1.3526964414809899</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <f t="shared" si="2"/>
         <v>0.91986850916829122</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <f t="shared" si="3"/>
         <v>0.85459184456901793</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <f t="shared" si="4"/>
         <v>-0.15176354710101014</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <f t="shared" si="4"/>
         <v>0.17315404148098978</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <f t="shared" si="4"/>
         <v>-0.25967389083170889</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f t="shared" si="4"/>
         <v>-0.32495055543098217</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="J55" s="3"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
         <v>42433</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>1.6787972969230701E-2</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <f t="shared" si="1"/>
         <v>0.52228341293411029</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <f t="shared" si="2"/>
         <v>1.0626217003619876</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <f t="shared" si="3"/>
         <v>0.86522816809433845</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <f t="shared" si="4"/>
         <v>-1.1627544270307695</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <f t="shared" si="4"/>
         <v>-0.65725898706588981</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <f t="shared" si="4"/>
         <v>-0.11692069963801255</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <f t="shared" si="4"/>
         <v>-0.31431423190566166</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="J56" s="3"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
         <v>42440</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>1.4730216208312401</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <f t="shared" si="1"/>
         <v>0.74490479690023537</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <f t="shared" si="2"/>
         <v>1.0488006191906127</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <f t="shared" si="3"/>
         <v>0.92858257568100189</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <f t="shared" si="4"/>
         <v>0.29347922083124001</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <f t="shared" si="4"/>
         <v>-0.43463760309976474</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <f t="shared" si="4"/>
         <v>-0.13074178080938736</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <f t="shared" si="4"/>
         <v>-0.25095982431899821</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="J57" s="3"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
         <v>42447</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>0.93281091984523701</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>1.2029162703382386</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <f t="shared" si="2"/>
         <v>0.86259984163617442</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <f t="shared" si="3"/>
         <v>0.9460967104023591</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <f t="shared" si="4"/>
         <v>-0.24673148015476309</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <f t="shared" si="4"/>
         <v>2.3373870338238456E-2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <f t="shared" si="4"/>
         <v>-0.31694255836382568</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f t="shared" si="4"/>
         <v>-0.233445689597641</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="J58" s="3"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>42454</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>1.0359443828780399</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <f t="shared" si="1"/>
         <v>0.98437765136163846</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <f t="shared" si="2"/>
         <v>0.86464122413093691</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <f t="shared" si="3"/>
         <v>0.89225486664961418</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <f t="shared" si="4"/>
         <v>-0.14359801712196019</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <f t="shared" si="4"/>
         <v>-0.19516474863836164</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <f t="shared" si="4"/>
         <v>-0.31490117586906319</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f t="shared" si="4"/>
         <v>-0.28728753335038593</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="J59" s="3"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
         <v>42461</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1.02728157497657</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f t="shared" si="1"/>
         <v>1.031612978927305</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <f t="shared" si="2"/>
         <v>1.1172646246327718</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <f t="shared" si="3"/>
         <v>1.0899431624973797</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <f t="shared" si="4"/>
         <v>-0.15226082502343008</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <f t="shared" si="4"/>
         <v>-0.14792942107269513</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <f t="shared" si="4"/>
         <v>-6.2277775367228339E-2</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f t="shared" si="4"/>
         <v>-8.9599237502620444E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="J60" s="3"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
         <v>42468</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>0.99446092835294098</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <f t="shared" si="1"/>
         <v>1.0108712516647556</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <f t="shared" si="2"/>
         <v>0.99762445151319701</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <f t="shared" si="3"/>
         <v>1.0232125353519048</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <f t="shared" si="4"/>
         <v>-0.18508147164705913</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <f t="shared" si="4"/>
         <v>-0.16867114833524455</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <f t="shared" si="4"/>
         <v>-0.18191794848680309</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f t="shared" si="4"/>
         <v>-0.15632986464809528</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="J61" s="3"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
         <v>42475</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>1.2127327843518501</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <f t="shared" si="1"/>
         <v>1.1035968563523955</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <f t="shared" si="2"/>
         <v>1.0676049176398501</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <f t="shared" si="3"/>
         <v>0.96510237963801238</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <f t="shared" si="4"/>
         <v>3.3190384351849955E-2</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <f t="shared" si="4"/>
         <v>-7.5945543647604641E-2</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <f t="shared" si="4"/>
         <v>-0.11193748236015</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <f t="shared" si="4"/>
         <v>-0.21444002036198773</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="J62" s="3"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
         <v>42482</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>0.98597866396</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <f t="shared" si="1"/>
         <v>1.0993557241559251</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>1.0551134879103403</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <f t="shared" si="3"/>
         <v>0.95987735602063862</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <f t="shared" si="4"/>
         <v>-0.1935637360400001</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <f t="shared" si="4"/>
         <v>-8.0186675844075017E-2</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <f t="shared" si="4"/>
         <v>-0.12442891208965978</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f t="shared" si="4"/>
         <v>-0.21966504397936149</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="J63" s="3"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
         <v>42489</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>-0.84735567819487101</v>
       </c>
       <c r="C64" s="2">
@@ -3132,444 +3345,483 @@
         <f t="shared" si="4"/>
         <v>-0.32768300037487419</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="J64" s="3"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
         <v>42496</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>1.4245572254096099</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <f t="shared" si="1"/>
         <v>0.28860077360736947</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="6">
         <f t="shared" si="2"/>
         <v>0.69397824888164727</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="6">
         <f t="shared" si="3"/>
         <v>0.8458013501974222</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="6">
         <f t="shared" si="4"/>
         <v>0.24501482540960984</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="6">
         <f t="shared" si="4"/>
         <v>-0.89094162639263064</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="6">
         <f t="shared" si="4"/>
         <v>-0.48556415111835283</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="6">
         <f t="shared" si="4"/>
         <v>-0.3337410498025779</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="J65" s="7">
+        <v>0.15210000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
         <v>42503</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>1.32628899601518</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <f t="shared" si="1"/>
         <v>1.3754231107123949</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <f t="shared" si="2"/>
         <v>0.72236730179747977</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <f t="shared" si="3"/>
         <v>0.89498610971866488</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <f t="shared" ref="F66:I97" si="5">B66-$L$1</f>
         <v>0.14674659601517992</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <f t="shared" si="5"/>
         <v>0.19588071071239477</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <f t="shared" si="5"/>
         <v>-0.45717509820252034</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f t="shared" si="5"/>
         <v>-0.28455629028133522</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="J66" s="3"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
         <v>42510</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>1.156348997152</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <f t="shared" si="1"/>
         <v>1.24131899658359</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <f t="shared" si="2"/>
         <v>0.76495988509547974</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <f t="shared" si="3"/>
         <v>0.91003668650290992</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <f t="shared" si="5"/>
         <v>-2.3193402848000089E-2</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <f t="shared" si="5"/>
         <v>6.1776596583589916E-2</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <f t="shared" si="5"/>
         <v>-0.41458251490452036</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f t="shared" si="5"/>
         <v>-0.26950571349709018</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="J67" s="3"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
         <v>42517</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>0.87657853715873002</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <f t="shared" ref="C68:C112" si="6">AVERAGE(B67:B68)</f>
         <v>1.0164637671553649</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <f t="shared" si="2"/>
         <v>1.1959434389338799</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <f t="shared" si="3"/>
         <v>0.89119880677567997</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <f t="shared" si="5"/>
         <v>-0.30296386284127008</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <f t="shared" si="5"/>
         <v>-0.1630786328446352</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <f t="shared" si="5"/>
         <v>1.6401038933879786E-2</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f t="shared" si="5"/>
         <v>-0.28834359322432013</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="J68" s="3"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
         <v>42524</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>1.61799255604522</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <f t="shared" si="6"/>
         <v>1.247285546601975</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <f t="shared" ref="D69:D112" si="7">AVERAGE(B66:B69)</f>
         <v>1.2443022715927825</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <f t="shared" si="3"/>
         <v>0.96914026023721478</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <f t="shared" si="5"/>
         <v>0.43845015604521986</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <f t="shared" si="5"/>
         <v>6.7743146601974891E-2</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <f t="shared" si="5"/>
         <v>6.4759871592782403E-2</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f t="shared" si="5"/>
         <v>-0.21040213976278532</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="J69" s="3"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
         <v>42531</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1.4328678625939</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>1.52543020931956</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <f t="shared" si="7"/>
         <v>1.2709469882374624</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f t="shared" si="3"/>
         <v>0.99665714501747116</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <f t="shared" si="5"/>
         <v>0.25332546259389987</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <f t="shared" si="5"/>
         <v>0.34588780931955987</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <f t="shared" si="5"/>
         <v>9.1404588237462336E-2</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f t="shared" si="5"/>
         <v>-0.18288525498252894</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="J70" s="3"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
         <v>42538</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>1.38768759402083</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <f t="shared" si="6"/>
         <v>1.4102777283073649</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <f t="shared" si="7"/>
         <v>1.3287816374546702</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f t="shared" si="3"/>
         <v>1.0468707612750749</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <f t="shared" si="5"/>
         <v>0.20814519402082987</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <f t="shared" si="5"/>
         <v>0.23073532830736476</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <f t="shared" si="5"/>
         <v>0.14923923745467005</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f t="shared" si="5"/>
         <v>-0.13267163872492516</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="J71" s="3"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
         <v>42545</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>1.7841498905984201</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <f t="shared" si="6"/>
         <v>1.585918742309625</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <f t="shared" si="7"/>
         <v>1.5556744758145926</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f t="shared" si="3"/>
         <v>1.375808957374236</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <f t="shared" si="5"/>
         <v>0.60460749059842001</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <f t="shared" si="5"/>
         <v>0.40637634230962494</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <f t="shared" si="5"/>
         <v>0.37613207581459251</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <f t="shared" si="5"/>
         <v>0.19626655737423593</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="J72" s="3"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
         <v>42552</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>0.73369813700393605</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <f t="shared" si="6"/>
         <v>1.2589240138011781</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <f t="shared" si="7"/>
         <v>1.3346008710542714</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <f t="shared" ref="E73:E112" si="8">AVERAGE(B66:B73)</f>
         <v>1.2894515713235271</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <f t="shared" si="5"/>
         <v>-0.44584426299606406</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <f t="shared" si="5"/>
         <v>7.938161380117803E-2</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <f t="shared" si="5"/>
         <v>0.15505847105427129</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <f t="shared" si="5"/>
         <v>0.10990917132352696</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="J73" s="3"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
         <v>42559</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>0.85587358425961602</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <f t="shared" si="6"/>
         <v>0.79478586063177603</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <f t="shared" si="7"/>
         <v>1.1903523014707005</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <f t="shared" si="8"/>
         <v>1.2306496448540816</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <f t="shared" si="5"/>
         <v>-0.32366881574038409</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <f t="shared" si="5"/>
         <v>-0.38475653936822407</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <f t="shared" si="5"/>
         <v>1.0809901470700378E-2</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <f t="shared" si="5"/>
         <v>5.1107244854081468E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="J74" s="3"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
         <v>42566</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>1.05372923851931</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <f t="shared" si="6"/>
         <v>0.95480141138946295</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <f t="shared" si="7"/>
         <v>1.1068627125953205</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <f t="shared" si="8"/>
         <v>1.2178221750249953</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <f t="shared" si="5"/>
         <v>-0.12581316148069011</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <f t="shared" si="5"/>
         <v>-0.22474098861053715</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="2">
         <f t="shared" si="5"/>
         <v>-7.267968740467956E-2</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="2">
         <f t="shared" si="5"/>
         <v>3.8279775024995244E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="J75" s="3"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
         <v>42573</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>1.45351845917575</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <f t="shared" si="6"/>
         <v>1.25362384884753</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <f t="shared" si="7"/>
         <v>1.0242048547396529</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <f t="shared" si="8"/>
         <v>1.2899396652771229</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <f t="shared" si="5"/>
         <v>0.27397605917574985</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <f t="shared" si="5"/>
         <v>7.4081448847529874E-2</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <f t="shared" si="5"/>
         <v>-0.15533754526034715</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <f t="shared" si="5"/>
         <v>0.11039726527712279</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="J76" s="3"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
         <v>42580</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>0.51291647741025603</v>
       </c>
       <c r="C77" s="2">
@@ -3600,444 +3852,483 @@
         <f t="shared" si="5"/>
         <v>-2.7737244552247908E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="J77" s="3"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
         <v>42587</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>1.46749770769444</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <f t="shared" si="6"/>
         <v>0.99020709255234807</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <f t="shared" si="7"/>
         <v>1.121915470699939</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="6">
         <f t="shared" si="8"/>
         <v>1.1561338860853196</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="6">
         <f t="shared" si="5"/>
         <v>0.28795530769443989</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="6">
         <f t="shared" si="5"/>
         <v>-0.18933530744765203</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="6">
         <f t="shared" si="5"/>
         <v>-5.762692930006108E-2</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="6">
         <f t="shared" si="5"/>
         <v>-2.3408513914680462E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="J78" s="7">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
         <v>42594</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>1.08176931263871</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <f t="shared" si="6"/>
         <v>1.2746335101665749</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <f t="shared" si="7"/>
         <v>1.1289254892297891</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <f t="shared" si="8"/>
         <v>1.1178941009125547</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <f t="shared" si="5"/>
         <v>-9.777308736129009E-2</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <f t="shared" si="5"/>
         <v>9.5091110166574788E-2</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <f t="shared" si="5"/>
         <v>-5.0616910770211021E-2</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <f t="shared" si="5"/>
         <v>-6.1648299087445402E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="J79" s="3"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
         <v>42601</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>0.94759223834523798</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <f t="shared" si="6"/>
         <v>1.014680775491974</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <f t="shared" si="7"/>
         <v>1.0024439340221609</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <f t="shared" si="8"/>
         <v>1.0133243943809069</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <f t="shared" si="5"/>
         <v>-0.23195016165476212</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <f t="shared" si="5"/>
         <v>-0.16486162450802611</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <f t="shared" si="5"/>
         <v>-0.17709846597783918</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <f t="shared" si="5"/>
         <v>-0.16621800561909317</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="J80" s="3"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
         <v>42608</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>0.75334034540449402</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <f t="shared" si="6"/>
         <v>0.850466291874866</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <f t="shared" si="7"/>
         <v>1.0625499010207204</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <f t="shared" si="8"/>
         <v>1.0157796704309767</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <f t="shared" si="5"/>
         <v>-0.42620205459550609</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <f t="shared" si="5"/>
         <v>-0.3290761081251341</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <f t="shared" si="5"/>
         <v>-0.11699249897927966</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <f t="shared" si="5"/>
         <v>-0.16376272956902338</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="J81" s="3"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
         <v>42615</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1.30347977277976</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <f t="shared" si="6"/>
         <v>1.028410059092127</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <f t="shared" si="7"/>
         <v>1.0215454172920504</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f t="shared" si="8"/>
         <v>1.0717304439959947</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <f t="shared" si="5"/>
         <v>0.12393737277975991</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <f t="shared" si="5"/>
         <v>-0.15113234090787309</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <f t="shared" si="5"/>
         <v>-0.15799698270794971</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <f t="shared" si="5"/>
         <v>-0.10781195600400539</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="J82" s="3"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
         <v>42622</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>1.0748207541746</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <f t="shared" si="6"/>
         <v>1.18915026347718</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <f t="shared" si="7"/>
         <v>1.0198082776760229</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <f t="shared" si="8"/>
         <v>1.0743668834529059</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <f t="shared" si="5"/>
         <v>-0.10472164582540011</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <f t="shared" si="5"/>
         <v>9.607863477179901E-3</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <f t="shared" si="5"/>
         <v>-0.15973412232397721</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <f t="shared" si="5"/>
         <v>-0.10517551654709423</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="J83" s="3"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
         <v>42629</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>1.0191214437481999</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <f t="shared" si="6"/>
         <v>1.0469710989614001</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <f t="shared" si="7"/>
         <v>1.0376905790267634</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <f t="shared" si="8"/>
         <v>1.0200672565244622</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <f t="shared" si="5"/>
         <v>-0.1604209562518002</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <f t="shared" si="5"/>
         <v>-0.13257130103860004</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <f t="shared" si="5"/>
         <v>-0.14185182097323668</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <f t="shared" si="5"/>
         <v>-0.15947514347553793</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="J84" s="3"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
         <v>42636</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>1.07743016407377</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <f t="shared" si="6"/>
         <v>1.048275803910985</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <f t="shared" si="7"/>
         <v>1.1187130336940825</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <f t="shared" si="8"/>
         <v>1.0906314673574014</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <f t="shared" si="5"/>
         <v>-0.10211223592623009</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <f t="shared" si="5"/>
         <v>-0.13126659608901514</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <f t="shared" si="5"/>
         <v>-6.082936630591762E-2</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <f t="shared" si="5"/>
         <v>-8.891093264259875E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="J85" s="3"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
         <v>42643</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>0.82677059763841798</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <f t="shared" si="6"/>
         <v>0.95210038085609394</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <f t="shared" si="7"/>
         <v>0.99953573990874711</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <f t="shared" si="8"/>
         <v>1.0105405786003987</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <f t="shared" si="5"/>
         <v>-0.35277180236158212</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <f t="shared" si="5"/>
         <v>-0.22744201914390616</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <f t="shared" si="5"/>
         <v>-0.18000666009125299</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <f t="shared" si="5"/>
         <v>-0.1690018213996014</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="J86" s="3"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
         <v>42650</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>0.19602893767708299</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <f t="shared" si="6"/>
         <v>0.51139976765775053</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <f t="shared" si="7"/>
         <v>0.7798377857843678</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <f t="shared" si="8"/>
         <v>0.89982303173019529</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <f t="shared" si="5"/>
         <v>-0.98351346232291714</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <f t="shared" si="5"/>
         <v>-0.66814263234224958</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <f t="shared" si="5"/>
         <v>-0.3997046142156323</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <f t="shared" si="5"/>
         <v>-0.27971936826980481</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="J87" s="3"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
         <v>42657</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>1.3650498907049999</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <f t="shared" si="6"/>
         <v>0.78053941419104145</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <f t="shared" si="7"/>
         <v>0.86631989752356775</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <f t="shared" si="8"/>
         <v>0.95200523827516559</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <f t="shared" si="5"/>
         <v>0.18550749070499983</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <f t="shared" si="5"/>
         <v>-0.39900298580895865</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="2">
         <f t="shared" si="5"/>
         <v>-0.31322250247643235</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="2">
         <f t="shared" si="5"/>
         <v>-0.22753716172483451</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="J88" s="3"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
         <v>42664</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>0.89788020893838805</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <f t="shared" si="6"/>
         <v>1.131465049821694</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <f t="shared" si="7"/>
         <v>0.82143240873972223</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <f t="shared" si="8"/>
         <v>0.97007272121690236</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <f t="shared" si="5"/>
         <v>-0.28166219106161205</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <f t="shared" si="5"/>
         <v>-4.8077350178306055E-2</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <f t="shared" si="5"/>
         <v>-0.35810999126027787</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <f t="shared" si="5"/>
         <v>-0.20946967878309775</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="J89" s="3"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
         <v>42671</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>1.1440600464297499</v>
       </c>
       <c r="C90" s="2">
@@ -4068,806 +4359,885 @@
         <f t="shared" si="5"/>
         <v>-0.22939714457684901</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="J90" s="3"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
         <v>42678</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>1.1596049583241701</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <f t="shared" si="6"/>
         <v>1.15183250237696</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <f t="shared" si="7"/>
         <v>1.141648776099327</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="6">
         <f t="shared" si="8"/>
         <v>0.96074328094184747</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="6">
         <f t="shared" si="5"/>
         <v>-1.9937441675830003E-2</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="6">
         <f t="shared" si="5"/>
         <v>-2.7709897623040103E-2</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="6">
         <f t="shared" si="5"/>
         <v>-3.7893623900673079E-2</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="6">
         <f t="shared" si="5"/>
         <v>-0.21879911905815264</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="J91" s="7">
+        <v>0.29809999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
         <v>42685</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>0.97119429449314998</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <f t="shared" si="6"/>
         <v>1.06539962640866</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <f t="shared" si="7"/>
         <v>1.0431848770463645</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <f t="shared" si="8"/>
         <v>0.95475238728496614</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <f t="shared" si="5"/>
         <v>-0.20834810550685012</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <f t="shared" si="5"/>
         <v>-0.11414277359134006</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <f t="shared" si="5"/>
         <v>-0.13635752295363557</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <f t="shared" si="5"/>
         <v>-0.22479001271503396</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="J92" s="3"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
         <v>42692</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1.42463201091095</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <f t="shared" si="6"/>
         <v>1.1979131527020499</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <f t="shared" si="7"/>
         <v>1.1748728275395051</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <f t="shared" si="8"/>
         <v>0.99815261813961376</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <f t="shared" si="5"/>
         <v>0.24508961091094994</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <f t="shared" si="5"/>
         <v>1.8370752702049797E-2</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <f t="shared" si="5"/>
         <v>-4.6695724604950417E-3</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <f t="shared" si="5"/>
         <v>-0.18138978186038635</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="J93" s="3"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
         <v>42699</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>1.43893823391509</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <f t="shared" si="6"/>
         <v>1.43178512241302</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <f t="shared" si="7"/>
         <v>1.24859237441084</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <f t="shared" si="8"/>
         <v>1.0746735726741976</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <f t="shared" si="5"/>
         <v>0.25939583391508991</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <f t="shared" si="5"/>
         <v>0.25224272241301993</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <f t="shared" si="5"/>
         <v>6.9049974410839932E-2</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <f t="shared" si="5"/>
         <v>-0.10486882732580249</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="J94" s="3"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
         <v>42706</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>1.4805334800724601</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <f t="shared" si="6"/>
         <v>1.4597358569937751</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <f t="shared" si="7"/>
         <v>1.3288245048479126</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <f t="shared" si="8"/>
         <v>1.2352366404736197</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <f t="shared" si="5"/>
         <v>0.30099108007246</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <f t="shared" si="5"/>
         <v>0.28019345699377496</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <f t="shared" si="5"/>
         <v>0.14928210484791249</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <f t="shared" si="5"/>
         <v>5.5694240473619594E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="J95" s="3"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
         <v>42713</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>1.21609307994339</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <f t="shared" si="6"/>
         <v>1.3483132800079249</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <f t="shared" si="7"/>
         <v>1.3900492012104726</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <f t="shared" si="8"/>
         <v>1.2166170391284186</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <f t="shared" si="5"/>
         <v>3.6550679943389897E-2</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <f t="shared" si="5"/>
         <v>0.16877088000792484</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <f t="shared" si="5"/>
         <v>0.21050680121047249</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <f t="shared" si="5"/>
         <v>3.7074639128418463E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="J96" s="3"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
         <v>42720</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>1.4835602192438999</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <f t="shared" si="6"/>
         <v>1.3498266495936448</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <f t="shared" si="7"/>
         <v>1.4047812532937101</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <f t="shared" si="8"/>
         <v>1.2898270404166077</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <f t="shared" si="5"/>
         <v>0.30401781924389981</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <f t="shared" si="5"/>
         <v>0.17028424959364474</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <f t="shared" si="5"/>
         <v>0.22523885329370996</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <f t="shared" si="5"/>
         <v>0.11028464041660757</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="J97" s="3"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
         <v>42727</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>-0.44051301506538398</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <f t="shared" si="6"/>
         <v>0.52152360208925796</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <f t="shared" si="7"/>
         <v>0.93491844104859156</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <f t="shared" si="8"/>
         <v>1.0917554077297158</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <f t="shared" ref="F98:I112" si="9">B98-$L$1</f>
         <v>-1.6200554150653841</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <f t="shared" si="9"/>
         <v>-0.65801879791074214</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <f t="shared" si="9"/>
         <v>-0.24462395895140854</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <f t="shared" si="9"/>
         <v>-8.7786992270284303E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="J98" s="3"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
         <v>42734</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>1.6927699709664099</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <f t="shared" si="6"/>
         <v>0.62612847795051296</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <f t="shared" si="7"/>
         <v>0.9879775637720789</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <f t="shared" si="8"/>
         <v>1.158401034309996</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <f t="shared" si="9"/>
         <v>0.51322757096640981</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <f t="shared" si="9"/>
         <v>-0.55341392204948714</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <f t="shared" si="9"/>
         <v>-0.1915648362279212</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <f t="shared" si="9"/>
         <v>-2.1141365690004132E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="J99" s="3"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="4">
         <v>42741</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>1.83688405142032</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <f t="shared" si="6"/>
         <v>1.7648270111933648</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <f t="shared" si="7"/>
         <v>1.1431753066413115</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <f t="shared" si="8"/>
         <v>1.2666122539258922</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <f t="shared" si="9"/>
         <v>0.65734165142031986</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <f t="shared" si="9"/>
         <v>0.58528461119336472</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <f t="shared" si="9"/>
         <v>-3.6367093358688596E-2</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <f t="shared" si="9"/>
         <v>8.706985392589206E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="J100" s="3"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
         <v>42748</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>2.7955319224976298</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <f t="shared" si="6"/>
         <v>2.3162079869589749</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <f t="shared" si="7"/>
         <v>1.4711682324547439</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <f t="shared" si="8"/>
         <v>1.4379747428742271</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <f t="shared" si="9"/>
         <v>1.6159895224976297</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <f t="shared" si="9"/>
         <v>1.1366655869589748</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2">
         <f t="shared" si="9"/>
         <v>0.29162583245474383</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="2">
         <f t="shared" si="9"/>
         <v>0.25843234287422701</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A102" s="4">
         <v>42755</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>1.50205212630635</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <f t="shared" si="6"/>
         <v>2.14879202440199</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="2">
         <f t="shared" si="7"/>
         <v>1.9568095177976774</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <f t="shared" si="8"/>
         <v>1.4458639794231343</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <f t="shared" si="9"/>
         <v>0.32250972630634989</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <f t="shared" si="9"/>
         <v>0.96924962440198992</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="2">
         <f t="shared" si="9"/>
         <v>0.77726711779767732</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="2">
         <f t="shared" si="9"/>
         <v>0.26632157942313417</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="J102" s="3"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="4">
         <v>42762</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>2.20730680873096</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <f t="shared" si="6"/>
         <v>1.8546794675186549</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <f t="shared" si="7"/>
         <v>2.0854437272388151</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <f t="shared" si="8"/>
         <v>1.5367106455054469</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <f t="shared" si="9"/>
         <v>1.0277644087309599</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <f t="shared" si="9"/>
         <v>0.67513706751865477</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2">
         <f t="shared" si="9"/>
         <v>0.905901327238815</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="2">
         <f t="shared" si="9"/>
         <v>0.35716824550544679</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="J103" s="3"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
         <v>42769</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="6">
         <v>1.5918009143401599</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="6">
         <f t="shared" si="6"/>
         <v>1.8995538615355598</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="6">
         <f t="shared" si="7"/>
         <v>2.0241729429687751</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="6">
         <f t="shared" si="8"/>
         <v>1.5836741248050432</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="6">
         <f t="shared" si="9"/>
         <v>0.41225851434015981</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="6">
         <f t="shared" si="9"/>
         <v>0.72001146153555973</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="6">
         <f t="shared" si="9"/>
         <v>0.84463054296877504</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="6">
         <f t="shared" si="9"/>
         <v>0.40413172480504311</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="J104" s="7">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
         <v>42776</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>1.4930819461718701</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <f t="shared" si="6"/>
         <v>1.542441430256015</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <f t="shared" si="7"/>
         <v>1.6985604488873349</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <f t="shared" si="8"/>
         <v>1.5848643406710394</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <f t="shared" si="9"/>
         <v>0.31353954617186997</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <f t="shared" si="9"/>
         <v>0.36289903025601489</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="2">
         <f t="shared" si="9"/>
         <v>0.51901804888733483</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="2">
         <f t="shared" si="9"/>
         <v>0.40532194067103933</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="J105" s="3"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
         <v>42783</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>8.1941637605911194E-2</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <f t="shared" si="6"/>
         <v>0.78751179188889064</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <f t="shared" si="7"/>
         <v>1.3435328267122251</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <f t="shared" si="8"/>
         <v>1.6501711722549515</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <f t="shared" si="9"/>
         <v>-1.0976007623940889</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <f t="shared" si="9"/>
         <v>-0.39203060811110946</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="2">
         <f t="shared" si="9"/>
         <v>0.16399042671222497</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="2">
         <f t="shared" si="9"/>
         <v>0.47062877225495137</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="J106" s="3"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
         <v>42790</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>0.82867817220700701</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <f t="shared" si="6"/>
         <v>0.45530990490645912</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <f t="shared" si="7"/>
         <v>0.99887566758123703</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <f t="shared" si="8"/>
         <v>1.5421596974100262</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <f t="shared" si="9"/>
         <v>-0.35086422779299309</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <f t="shared" si="9"/>
         <v>-0.72423249509354104</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="2">
         <f t="shared" si="9"/>
         <v>-0.18066673241876308</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="2">
         <f t="shared" si="9"/>
         <v>0.36261729741002613</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+      <c r="J107" s="3"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
         <v>42797</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>1.5401880966505099</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <f t="shared" si="6"/>
         <v>1.1844331344287584</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <f t="shared" si="7"/>
         <v>0.98597246315882459</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <f t="shared" si="8"/>
         <v>1.5050727030638</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <f t="shared" si="9"/>
         <v>0.36064569665050983</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <f t="shared" si="9"/>
         <v>4.8907344287583143E-3</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="2">
         <f t="shared" si="9"/>
         <v>-0.19356993684117552</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="2">
         <f t="shared" si="9"/>
         <v>0.32553030306379993</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+      <c r="J108" s="3"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
         <v>42804</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>1.0905988869341601</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <f t="shared" si="6"/>
         <v>1.3153934917923351</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <f t="shared" si="7"/>
         <v>0.88535169834939698</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <f t="shared" si="8"/>
         <v>1.291956073618366</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <f t="shared" si="9"/>
         <v>-8.894351306584003E-2</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <f t="shared" si="9"/>
         <v>0.13585109179233501</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="2">
         <f t="shared" si="9"/>
         <v>-0.29419070165060313</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="2">
         <f t="shared" si="9"/>
         <v>0.11241367361836585</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="J109" s="3"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="4">
         <v>42811</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>1.0729013662663001</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <f t="shared" si="6"/>
         <v>1.0817501266002301</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <f t="shared" si="7"/>
         <v>1.1330916305144942</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <f t="shared" si="8"/>
         <v>1.2383122286133597</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <f t="shared" si="9"/>
         <v>-0.10664103373370004</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <f t="shared" si="9"/>
         <v>-9.7792273399770036E-2</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <f t="shared" si="9"/>
         <v>-4.6450769485505861E-2</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <f t="shared" si="9"/>
         <v>5.8769828613359554E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="J110" s="3"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
         <v>42818</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>1.53050122889655</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <f t="shared" si="6"/>
         <v>1.3017012975814251</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <f t="shared" si="7"/>
         <v>1.30854739468688</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <f t="shared" si="8"/>
         <v>1.1537115311340584</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <f t="shared" si="9"/>
         <v>0.35095882889654995</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <f t="shared" si="9"/>
         <v>0.12215889758142495</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2">
         <f t="shared" si="9"/>
         <v>0.12900499468687987</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="2">
         <f t="shared" si="9"/>
         <v>-2.5830868865941659E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="J111" s="3"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="4">
         <v>42825</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>1.15122853358847</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <f t="shared" si="6"/>
         <v>1.3408648812425099</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <f t="shared" si="7"/>
         <v>1.2113075039213701</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <f t="shared" si="8"/>
         <v>1.0986399835400973</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <f t="shared" si="9"/>
         <v>-2.8313866411530109E-2</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <f t="shared" si="9"/>
         <v>0.16132248124250981</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="2">
         <f t="shared" si="9"/>
         <v>3.1765103921369997E-2</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="2">
         <f t="shared" si="9"/>
         <v>-8.0902416459902815E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="J112" s="3"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
         <v>42832</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>1.8898520622805399</v>
       </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
